--- a/doc/ue_unlua.xlsx
+++ b/doc/ue_unlua.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99063F30-EF84-4981-858D-316A6722B4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC945554-3BE2-46A9-BF49-E31D64A1AB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="delegate" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>编辑器模式下</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,13 +228,29 @@
   </si>
   <si>
     <t>UE4.UStaticMeshComponent.K2_AttachToComponent(StaticMeshComponent,self.StaticMeshComponent,"",EAttachmentRule.SnapToTarget,EAttachmentRule.SnapToTarget,EAttachmentRule.SnapToTarget)</t>
+  </si>
+  <si>
+    <t>TScriptDelegate</t>
+  </si>
+  <si>
+    <t>弱引用Object delegate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template &lt;typename TWeakPtr = FWeakObjectPtr&gt;</t>
+  </si>
+  <si>
+    <t>class TScriptDelegate</t>
+  </si>
+  <si>
+    <t>LuaLib_Delegate.cpp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +286,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -291,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -299,6 +325,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -758,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1712F9E-3327-493E-B67F-7F47C2A8CFA1}">
   <dimension ref="A1:AM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1392,4 +1419,46 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A0D8EC-0DAD-49C9-961C-2B7804574431}">
+  <dimension ref="B5:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>